--- a/assets/formats/Parts.xlsx
+++ b/assets/formats/Parts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PRTMS_NEW\assets\formats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="130" windowWidth="19100" windowHeight="7290"/>
+    <workbookView xWindow="75" yWindow="135" windowWidth="19095" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Part Code</t>
   </si>
@@ -76,13 +81,61 @@
   </si>
   <si>
     <t>Part Category</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Part no1</t>
+  </si>
+  <si>
+    <t>Part no2</t>
+  </si>
+  <si>
+    <t>Part no3</t>
+  </si>
+  <si>
+    <t>Part no4</t>
+  </si>
+  <si>
+    <t>Part no5</t>
+  </si>
+  <si>
+    <t>Part no6</t>
+  </si>
+  <si>
+    <t>Part no7</t>
+  </si>
+  <si>
+    <t>img_file</t>
+  </si>
+  <si>
+    <t>img1.jgp</t>
+  </si>
+  <si>
+    <t>img2.png</t>
+  </si>
+  <si>
+    <t>img3.png</t>
+  </si>
+  <si>
+    <t>img4.png</t>
+  </si>
+  <si>
+    <t>img5.jpg</t>
+  </si>
+  <si>
+    <t>img6.jpg</t>
+  </si>
+  <si>
+    <t>img7.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,13 +175,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -138,6 +203,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -184,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,6 +324,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,21 +500,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -449,9 +524,15 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -460,36 +541,60 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -498,23 +603,41 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -527,24 +650,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/formats/Parts.xlsx
+++ b/assets/formats/Parts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PRTMS_NEW\assets\formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,78 +35,15 @@
     <t>Electrical</t>
   </si>
   <si>
-    <t>ELP001</t>
-  </si>
-  <si>
-    <t>ELP002</t>
-  </si>
-  <si>
-    <t>ELP003</t>
-  </si>
-  <si>
-    <t>ELP004</t>
-  </si>
-  <si>
-    <t>EL Part 1</t>
-  </si>
-  <si>
-    <t>EL Part 2</t>
-  </si>
-  <si>
-    <t>EL Part 3</t>
-  </si>
-  <si>
-    <t>EL Part 4</t>
-  </si>
-  <si>
     <t>Mechanical</t>
   </si>
   <si>
-    <t>MCP005</t>
-  </si>
-  <si>
-    <t>MCP006</t>
-  </si>
-  <si>
-    <t>MCP007</t>
-  </si>
-  <si>
-    <t>MC Part 1</t>
-  </si>
-  <si>
-    <t>MC Part 2</t>
-  </si>
-  <si>
-    <t>MC Part 3</t>
-  </si>
-  <si>
     <t>Part Category</t>
   </si>
   <si>
     <t>Part Number</t>
   </si>
   <si>
-    <t>Part no1</t>
-  </si>
-  <si>
-    <t>Part no2</t>
-  </si>
-  <si>
-    <t>Part no3</t>
-  </si>
-  <si>
-    <t>Part no4</t>
-  </si>
-  <si>
-    <t>Part no5</t>
-  </si>
-  <si>
-    <t>Part no6</t>
-  </si>
-  <si>
-    <t>Part no7</t>
-  </si>
-  <si>
     <t>img_file</t>
   </si>
   <si>
@@ -129,6 +66,69 @@
   </si>
   <si>
     <t>img7.jpg</t>
+  </si>
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>num4</t>
+  </si>
+  <si>
+    <t>num5</t>
+  </si>
+  <si>
+    <t>num6</t>
+  </si>
+  <si>
+    <t>ELP00111</t>
+  </si>
+  <si>
+    <t>ELP00112</t>
+  </si>
+  <si>
+    <t>ELP00113</t>
+  </si>
+  <si>
+    <t>ELP00114</t>
+  </si>
+  <si>
+    <t>ELP00115</t>
+  </si>
+  <si>
+    <t>ELP00116</t>
+  </si>
+  <si>
+    <t>ELP00117</t>
+  </si>
+  <si>
+    <t>EL Part 111</t>
+  </si>
+  <si>
+    <t>EL Part 112</t>
+  </si>
+  <si>
+    <t>EL Part 113</t>
+  </si>
+  <si>
+    <t>EL Part 114</t>
+  </si>
+  <si>
+    <t>EL Part 115</t>
+  </si>
+  <si>
+    <t>EL Part 116</t>
+  </si>
+  <si>
+    <t>EL Part 117</t>
+  </si>
+  <si>
+    <t>num76</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -525,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,108 +536,108 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
